--- a/xlsx/country_comparison/radical_redistr_positive.xlsx
+++ b/xlsx/country_comparison/radical_redistr_positive.xlsx
@@ -17,10 +17,10 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">$ italic('All')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ italic('Europe')</t>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
   </si>
   <si>
     <t xml:space="preserve">France</t>
@@ -72,7 +72,7 @@
     <t xml:space="preserve">Could sign a petition and spread ideas</t>
   </si>
   <si>
-    <t xml:space="preserve">More/less likely to vote for party if part of worldwide
+    <t xml:space="preserve">More likely to vote for party if part of worldwide
 coalition for climate action and global redistribution</t>
   </si>
   <si>
@@ -458,40 +458,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.526922299415757</v>
+        <v>0.548132829395762</v>
       </c>
       <c r="C2" t="n">
-        <v>0.613660288567081</v>
+        <v>0.610764131211612</v>
       </c>
       <c r="D2" t="n">
-        <v>0.609737296835963</v>
+        <v>0.61706742946377</v>
       </c>
       <c r="E2" t="n">
-        <v>0.632130733573474</v>
+        <v>0.634211363242398</v>
       </c>
       <c r="F2" t="n">
-        <v>0.734170524596866</v>
+        <v>0.745348229299363</v>
       </c>
       <c r="G2" t="n">
-        <v>0.507045250550014</v>
+        <v>0.511050672302887</v>
       </c>
       <c r="H2" t="n">
-        <v>0.581485742280128</v>
+        <v>0.588065021505013</v>
       </c>
       <c r="I2" t="n">
-        <v>0.575519914345905</v>
+        <v>0.541595361200054</v>
       </c>
       <c r="J2" t="n">
-        <v>0.516645205790836</v>
+        <v>0.43489477378171</v>
       </c>
       <c r="K2" t="n">
-        <v>0.440308383568388</v>
+        <v>0.439171656002142</v>
       </c>
       <c r="L2" t="n">
-        <v>0.697089827150753</v>
+        <v>0.695257042597063</v>
       </c>
       <c r="M2" t="n">
-        <v>0.448301347756075</v>
+        <v>0.504421320864869</v>
       </c>
     </row>
     <row r="3">
@@ -499,40 +499,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.472071438796136</v>
+        <v>0.490357864825886</v>
       </c>
       <c r="C3" t="n">
-        <v>0.559771025352073</v>
+        <v>0.557108056732848</v>
       </c>
       <c r="D3" t="n">
-        <v>0.578888784107719</v>
+        <v>0.58503497619848</v>
       </c>
       <c r="E3" t="n">
-        <v>0.554094740104364</v>
+        <v>0.548070451514307</v>
       </c>
       <c r="F3" t="n">
-        <v>0.600159308046501</v>
+        <v>0.606812190042645</v>
       </c>
       <c r="G3" t="n">
-        <v>0.548039454754721</v>
+        <v>0.55860121467578</v>
       </c>
       <c r="H3" t="n">
-        <v>0.53802979077109</v>
+        <v>0.537057883196909</v>
       </c>
       <c r="I3" t="n">
-        <v>0.559663162677399</v>
+        <v>0.534109340446206</v>
       </c>
       <c r="J3" t="n">
-        <v>0.387345695000873</v>
+        <v>0.38263616533497</v>
       </c>
       <c r="K3" t="n">
-        <v>0.346771216766692</v>
+        <v>0.34687360092281</v>
       </c>
       <c r="L3" t="n">
-        <v>0.676812748509977</v>
+        <v>0.669458804553946</v>
       </c>
       <c r="M3" t="n">
-        <v>0.402948795334206</v>
+        <v>0.457262803804217</v>
       </c>
     </row>
     <row r="4">
@@ -540,40 +540,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.681486176692702</v>
+        <v>0.684971976950318</v>
       </c>
       <c r="C4" t="n">
-        <v>0.716431313430533</v>
+        <v>0.709052233549382</v>
       </c>
       <c r="D4" t="n">
-        <v>0.72814053707102</v>
+        <v>0.719098657982519</v>
       </c>
       <c r="E4" t="n">
-        <v>0.743591483061403</v>
+        <v>0.742152235473654</v>
       </c>
       <c r="F4" t="n">
-        <v>0.759234192261716</v>
+        <v>0.763169851058816</v>
       </c>
       <c r="G4" t="n">
-        <v>0.590987892497358</v>
+        <v>0.58985384550952</v>
       </c>
       <c r="H4" t="n">
-        <v>0.720461570634532</v>
+        <v>0.730280336839806</v>
       </c>
       <c r="I4" t="n">
-        <v>0.708875889140152</v>
+        <v>0.670504795205127</v>
       </c>
       <c r="J4" t="n">
-        <v>0.655654645346738</v>
+        <v>0.635823622009053</v>
       </c>
       <c r="K4" t="n">
-        <v>0.756803685734663</v>
+        <v>0.7567947956425</v>
       </c>
       <c r="L4" t="n">
-        <v>0.713521251954179</v>
+        <v>0.720406204237396</v>
       </c>
       <c r="M4" t="n">
-        <v>0.608956637939559</v>
+        <v>0.62592635305428</v>
       </c>
     </row>
     <row r="5">
@@ -581,40 +581,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.576484574062658</v>
+        <v>0.586335934531657</v>
       </c>
       <c r="C5" t="n">
-        <v>0.670637248007201</v>
+        <v>0.66530380799911</v>
       </c>
       <c r="D5" t="n">
-        <v>0.620287301771935</v>
+        <v>0.615657844956346</v>
       </c>
       <c r="E5" t="n">
-        <v>0.649914062999792</v>
+        <v>0.650567898455476</v>
       </c>
       <c r="F5" t="n">
-        <v>0.787202113255719</v>
+        <v>0.77979314478094</v>
       </c>
       <c r="G5" t="n">
-        <v>0.795124872131361</v>
+        <v>0.79084296772138</v>
       </c>
       <c r="H5" t="n">
-        <v>0.697866405180194</v>
+        <v>0.712741533225287</v>
       </c>
       <c r="I5" t="n">
-        <v>0.558346589589427</v>
+        <v>0.536797334656409</v>
       </c>
       <c r="J5" t="n">
-        <v>0.590978898058625</v>
+        <v>0.542816113552817</v>
       </c>
       <c r="K5" t="n">
-        <v>0.571690786960416</v>
+        <v>0.57160158767012</v>
       </c>
       <c r="L5" t="n">
-        <v>0.764349773908456</v>
+        <v>0.766579696300787</v>
       </c>
       <c r="M5" t="n">
-        <v>0.454312293374511</v>
+        <v>0.486103740872884</v>
       </c>
     </row>
     <row r="6">
@@ -622,40 +622,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.497519776208272</v>
+        <v>0.512219604565784</v>
       </c>
       <c r="C6" t="n">
-        <v>0.545318116476065</v>
+        <v>0.542896550674237</v>
       </c>
       <c r="D6" t="n">
-        <v>0.545579954350035</v>
+        <v>0.535827320778905</v>
       </c>
       <c r="E6" t="n">
-        <v>0.541070685606703</v>
+        <v>0.539225355860669</v>
       </c>
       <c r="F6" t="n">
-        <v>0.572900624572681</v>
+        <v>0.574019337287482</v>
       </c>
       <c r="G6" t="n">
-        <v>0.526641386264675</v>
+        <v>0.522350021312604</v>
       </c>
       <c r="H6" t="n">
-        <v>0.560713877966922</v>
+        <v>0.555062534757864</v>
       </c>
       <c r="I6" t="n">
-        <v>0.531043101188893</v>
+        <v>0.53810514158223</v>
       </c>
       <c r="J6" t="n">
-        <v>0.497507470707634</v>
+        <v>0.475340748466772</v>
       </c>
       <c r="K6" t="n">
-        <v>0.511662098107538</v>
+        <v>0.511153928037327</v>
       </c>
       <c r="L6" t="n">
-        <v>0.393551592050322</v>
+        <v>0.403565123193363</v>
       </c>
       <c r="M6" t="n">
-        <v>0.446554626512108</v>
+        <v>0.487230476694949</v>
       </c>
     </row>
     <row r="7">
@@ -663,38 +663,38 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.356409851371553</v>
+        <v>0.372375345140768</v>
       </c>
       <c r="C7" t="n">
-        <v>0.412834475382294</v>
+        <v>0.407249884406639</v>
       </c>
       <c r="D7" t="n">
-        <v>0.436574545636148</v>
+        <v>0.428841423192728</v>
       </c>
       <c r="E7" t="n">
-        <v>0.389026052126051</v>
+        <v>0.387498805154025</v>
       </c>
       <c r="F7" t="n">
-        <v>0.494786863666839</v>
+        <v>0.495880414886633</v>
       </c>
       <c r="G7" t="n">
-        <v>0.296393812285655</v>
+        <v>0.299837654200415</v>
       </c>
       <c r="H7" t="n">
-        <v>0.417364991620875</v>
+        <v>0.431050197072551</v>
       </c>
       <c r="I7" t="n">
-        <v>0.416766978671391</v>
+        <v>0.385838006304365</v>
       </c>
       <c r="J7" t="n">
-        <v>0.351512037453135</v>
+        <v>0.321292071758454</v>
       </c>
       <c r="K7" t="n">
-        <v>0.222024807962888</v>
+        <v>0.221733728469837</v>
       </c>
       <c r="L7"/>
       <c r="M7" t="n">
-        <v>0.34519914550712</v>
+        <v>0.392196378306668</v>
       </c>
     </row>
     <row r="8">
@@ -702,32 +702,32 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.34911025926038</v>
+        <v>0.355978510390257</v>
       </c>
       <c r="C8" t="n">
-        <v>0.39798812533586</v>
+        <v>0.391363206624366</v>
       </c>
       <c r="D8" t="n">
-        <v>0.337800095631495</v>
+        <v>0.332108141582335</v>
       </c>
       <c r="E8" t="n">
-        <v>0.352288545523515</v>
+        <v>0.353601144953165</v>
       </c>
       <c r="F8" t="n">
-        <v>0.572985091340532</v>
+        <v>0.562651880221761</v>
       </c>
       <c r="G8"/>
       <c r="H8" t="n">
-        <v>0.397166916685374</v>
+        <v>0.404245934531722</v>
       </c>
       <c r="I8" t="n">
-        <v>0.356328724367775</v>
+        <v>0.331934892271635</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8" t="n">
-        <v>0.300394579231451</v>
+        <v>0.320711226013972</v>
       </c>
     </row>
     <row r="9">
@@ -735,40 +735,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.407654237511053</v>
+        <v>0.424094989225914</v>
       </c>
       <c r="C9" t="n">
-        <v>0.439226455358971</v>
+        <v>0.437238486797052</v>
       </c>
       <c r="D9" t="n">
-        <v>0.315691879097656</v>
+        <v>0.314047916560795</v>
       </c>
       <c r="E9" t="n">
-        <v>0.44903898491351</v>
+        <v>0.447107136085123</v>
       </c>
       <c r="F9" t="n">
-        <v>0.509061603714743</v>
+        <v>0.513971658951791</v>
       </c>
       <c r="G9" t="n">
-        <v>0.430035461066575</v>
+        <v>0.425140040273407</v>
       </c>
       <c r="H9" t="n">
-        <v>0.472379967441741</v>
+        <v>0.497543911832938</v>
       </c>
       <c r="I9" t="n">
-        <v>0.470244126182216</v>
+        <v>0.442704742067729</v>
       </c>
       <c r="J9" t="n">
-        <v>0.418024567679209</v>
+        <v>0.419567406867867</v>
       </c>
       <c r="K9" t="n">
-        <v>0.311860644516199</v>
+        <v>0.312455666946477</v>
       </c>
       <c r="L9" t="n">
-        <v>0.668060790525133</v>
+        <v>0.664864930041341</v>
       </c>
       <c r="M9" t="n">
-        <v>0.386518512866056</v>
+        <v>0.432001277764482</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/radical_redistr_positive.xlsx
+++ b/xlsx/country_comparison/radical_redistr_positive.xlsx
@@ -64,9 +64,8 @@
     <t xml:space="preserve">Prefers sustainable future</t>
   </si>
   <si>
-    <t xml:space="preserve">"Governments should actively cooperate to
-have all countries converge in terms of
-GDP per capita by the end of the century"</t>
+    <t xml:space="preserve">"Governments should actively cooperate to have
+all countries converge in terms of GDP per capita by the end of the century"</t>
   </si>
   <si>
     <t xml:space="preserve">Could sign a petition and spread ideas</t>
@@ -458,40 +457,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.548132829395762</v>
+        <v>0.548749204972874</v>
       </c>
       <c r="C2" t="n">
-        <v>0.610764131211612</v>
+        <v>0.612606004275778</v>
       </c>
       <c r="D2" t="n">
-        <v>0.61706742946377</v>
+        <v>0.616724928283738</v>
       </c>
       <c r="E2" t="n">
-        <v>0.634211363242398</v>
+        <v>0.620808072627315</v>
       </c>
       <c r="F2" t="n">
-        <v>0.745348229299363</v>
+        <v>0.75031578480093</v>
       </c>
       <c r="G2" t="n">
-        <v>0.511050672302887</v>
+        <v>0.495076291993524</v>
       </c>
       <c r="H2" t="n">
-        <v>0.588065021505013</v>
+        <v>0.6117343914093</v>
       </c>
       <c r="I2" t="n">
-        <v>0.541595361200054</v>
+        <v>0.554433842033875</v>
       </c>
       <c r="J2" t="n">
-        <v>0.43489477378171</v>
+        <v>0.529872342725065</v>
       </c>
       <c r="K2" t="n">
-        <v>0.439171656002142</v>
+        <v>0.438153093874799</v>
       </c>
       <c r="L2" t="n">
-        <v>0.695257042597063</v>
+        <v>0.677827112481047</v>
       </c>
       <c r="M2" t="n">
-        <v>0.504421320864869</v>
+        <v>0.508222265196169</v>
       </c>
     </row>
     <row r="3">
@@ -499,40 +498,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.490357864825886</v>
+        <v>0.488009346515533</v>
       </c>
       <c r="C3" t="n">
-        <v>0.557108056732848</v>
+        <v>0.55532380171867</v>
       </c>
       <c r="D3" t="n">
-        <v>0.58503497619848</v>
+        <v>0.588306427984715</v>
       </c>
       <c r="E3" t="n">
-        <v>0.548070451514307</v>
+        <v>0.528389866344171</v>
       </c>
       <c r="F3" t="n">
-        <v>0.606812190042645</v>
+        <v>0.602852192238351</v>
       </c>
       <c r="G3" t="n">
-        <v>0.55860121467578</v>
+        <v>0.547884560154944</v>
       </c>
       <c r="H3" t="n">
-        <v>0.537057883196909</v>
+        <v>0.567216620094722</v>
       </c>
       <c r="I3" t="n">
-        <v>0.534109340446206</v>
+        <v>0.542572051573976</v>
       </c>
       <c r="J3" t="n">
-        <v>0.38263616533497</v>
+        <v>0.360111742646164</v>
       </c>
       <c r="K3" t="n">
-        <v>0.34687360092281</v>
+        <v>0.351009115929929</v>
       </c>
       <c r="L3" t="n">
-        <v>0.669458804553946</v>
+        <v>0.671355992475847</v>
       </c>
       <c r="M3" t="n">
-        <v>0.457262803804217</v>
+        <v>0.447291263751444</v>
       </c>
     </row>
     <row r="4">
@@ -540,40 +539,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.684971976950318</v>
+        <v>0.679366394096195</v>
       </c>
       <c r="C4" t="n">
-        <v>0.709052233549382</v>
+        <v>0.701539116816613</v>
       </c>
       <c r="D4" t="n">
-        <v>0.719098657982519</v>
+        <v>0.719673932778947</v>
       </c>
       <c r="E4" t="n">
-        <v>0.742152235473654</v>
+        <v>0.704645953003574</v>
       </c>
       <c r="F4" t="n">
-        <v>0.763169851058816</v>
+        <v>0.760434225154626</v>
       </c>
       <c r="G4" t="n">
-        <v>0.58985384550952</v>
+        <v>0.572739428737827</v>
       </c>
       <c r="H4" t="n">
-        <v>0.730280336839806</v>
+        <v>0.73608837047601</v>
       </c>
       <c r="I4" t="n">
-        <v>0.670504795205127</v>
+        <v>0.679200342355269</v>
       </c>
       <c r="J4" t="n">
-        <v>0.635823622009053</v>
+        <v>0.665468662233116</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7567947956425</v>
+        <v>0.757961572913613</v>
       </c>
       <c r="L4" t="n">
-        <v>0.720406204237396</v>
+        <v>0.713280127381035</v>
       </c>
       <c r="M4" t="n">
-        <v>0.62592635305428</v>
+        <v>0.61682403920896</v>
       </c>
     </row>
     <row r="5">
@@ -581,40 +580,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.586335934531657</v>
+        <v>0.582407081968796</v>
       </c>
       <c r="C5" t="n">
-        <v>0.66530380799911</v>
+        <v>0.667387097439935</v>
       </c>
       <c r="D5" t="n">
-        <v>0.615657844956346</v>
+        <v>0.608837961112165</v>
       </c>
       <c r="E5" t="n">
-        <v>0.650567898455476</v>
+        <v>0.64586557994442</v>
       </c>
       <c r="F5" t="n">
-        <v>0.77979314478094</v>
+        <v>0.780212171052138</v>
       </c>
       <c r="G5" t="n">
-        <v>0.79084296772138</v>
+        <v>0.766346455024569</v>
       </c>
       <c r="H5" t="n">
-        <v>0.712741533225287</v>
+        <v>0.728439095410156</v>
       </c>
       <c r="I5" t="n">
-        <v>0.536797334656409</v>
+        <v>0.555251737340332</v>
       </c>
       <c r="J5" t="n">
-        <v>0.542816113552817</v>
+        <v>0.566109070039295</v>
       </c>
       <c r="K5" t="n">
-        <v>0.57160158767012</v>
+        <v>0.571037878973246</v>
       </c>
       <c r="L5" t="n">
-        <v>0.766579696300787</v>
+        <v>0.756844881931732</v>
       </c>
       <c r="M5" t="n">
-        <v>0.486103740872884</v>
+        <v>0.472973814509855</v>
       </c>
     </row>
     <row r="6">
@@ -622,40 +621,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.512219604565784</v>
+        <v>0.517681293588919</v>
       </c>
       <c r="C6" t="n">
-        <v>0.542896550674237</v>
+        <v>0.54627578656303</v>
       </c>
       <c r="D6" t="n">
-        <v>0.535827320778905</v>
+        <v>0.530038042676022</v>
       </c>
       <c r="E6" t="n">
-        <v>0.539225355860669</v>
+        <v>0.525216461992543</v>
       </c>
       <c r="F6" t="n">
-        <v>0.574019337287482</v>
+        <v>0.574663014312723</v>
       </c>
       <c r="G6" t="n">
-        <v>0.522350021312604</v>
+        <v>0.541227742327436</v>
       </c>
       <c r="H6" t="n">
-        <v>0.555062534757864</v>
+        <v>0.57000212855437</v>
       </c>
       <c r="I6" t="n">
-        <v>0.53810514158223</v>
+        <v>0.5501691998004</v>
       </c>
       <c r="J6" t="n">
-        <v>0.475340748466772</v>
+        <v>0.48406365355452</v>
       </c>
       <c r="K6" t="n">
-        <v>0.511153928037327</v>
+        <v>0.510803804042151</v>
       </c>
       <c r="L6" t="n">
-        <v>0.403565123193363</v>
+        <v>0.404576421408372</v>
       </c>
       <c r="M6" t="n">
-        <v>0.487230476694949</v>
+        <v>0.497966802692056</v>
       </c>
     </row>
     <row r="7">
@@ -663,38 +662,38 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.372375345140768</v>
+        <v>0.364700740506257</v>
       </c>
       <c r="C7" t="n">
-        <v>0.407249884406639</v>
+        <v>0.40721776360235</v>
       </c>
       <c r="D7" t="n">
-        <v>0.428841423192728</v>
+        <v>0.428789858236926</v>
       </c>
       <c r="E7" t="n">
-        <v>0.387498805154025</v>
+        <v>0.382760045850686</v>
       </c>
       <c r="F7" t="n">
-        <v>0.495880414886633</v>
+        <v>0.49409402735291</v>
       </c>
       <c r="G7" t="n">
-        <v>0.299837654200415</v>
+        <v>0.297020517023446</v>
       </c>
       <c r="H7" t="n">
-        <v>0.431050197072551</v>
+        <v>0.434344229636586</v>
       </c>
       <c r="I7" t="n">
-        <v>0.385838006304365</v>
+        <v>0.394744985134441</v>
       </c>
       <c r="J7" t="n">
-        <v>0.321292071758454</v>
+        <v>0.314122252360097</v>
       </c>
       <c r="K7" t="n">
-        <v>0.221733728469837</v>
+        <v>0.221514789130911</v>
       </c>
       <c r="L7"/>
       <c r="M7" t="n">
-        <v>0.392196378306668</v>
+        <v>0.372185762920701</v>
       </c>
     </row>
     <row r="8">
@@ -702,32 +701,32 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.355978510390257</v>
+        <v>0.347856888878235</v>
       </c>
       <c r="C8" t="n">
-        <v>0.391363206624366</v>
+        <v>0.389632627264691</v>
       </c>
       <c r="D8" t="n">
-        <v>0.332108141582335</v>
+        <v>0.330491389745475</v>
       </c>
       <c r="E8" t="n">
-        <v>0.353601144953165</v>
+        <v>0.335223833737993</v>
       </c>
       <c r="F8" t="n">
-        <v>0.562651880221761</v>
+        <v>0.55884551964724</v>
       </c>
       <c r="G8"/>
       <c r="H8" t="n">
-        <v>0.404245934531722</v>
+        <v>0.402288413192778</v>
       </c>
       <c r="I8" t="n">
-        <v>0.331934892271635</v>
+        <v>0.353117864669717</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8" t="n">
-        <v>0.320711226013972</v>
+        <v>0.306358846199483</v>
       </c>
     </row>
     <row r="9">
@@ -735,40 +734,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.424094989225914</v>
+        <v>0.414163491723958</v>
       </c>
       <c r="C9" t="n">
-        <v>0.437238486797052</v>
+        <v>0.439007996245569</v>
       </c>
       <c r="D9" t="n">
-        <v>0.314047916560795</v>
+        <v>0.324278224348557</v>
       </c>
       <c r="E9" t="n">
-        <v>0.447107136085123</v>
+        <v>0.441488389669955</v>
       </c>
       <c r="F9" t="n">
-        <v>0.513971658951791</v>
+        <v>0.518375799884677</v>
       </c>
       <c r="G9" t="n">
-        <v>0.425140040273407</v>
+        <v>0.40468182659417</v>
       </c>
       <c r="H9" t="n">
-        <v>0.497543911832938</v>
+        <v>0.506211274976579</v>
       </c>
       <c r="I9" t="n">
-        <v>0.442704742067729</v>
+        <v>0.451738941455142</v>
       </c>
       <c r="J9" t="n">
-        <v>0.419567406867867</v>
+        <v>0.393105560133332</v>
       </c>
       <c r="K9" t="n">
-        <v>0.312455666946477</v>
+        <v>0.319277017627355</v>
       </c>
       <c r="L9" t="n">
-        <v>0.664864930041341</v>
+        <v>0.662536527281334</v>
       </c>
       <c r="M9" t="n">
-        <v>0.432001277764482</v>
+        <v>0.400776129109669</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/radical_redistr_positive.xlsx
+++ b/xlsx/country_comparison/radical_redistr_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -451,16 +454,19 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.548749204972874</v>
+        <v>0.556885386017966</v>
       </c>
       <c r="C2" t="n">
-        <v>0.612606004275778</v>
+        <v>0.612606004275779</v>
       </c>
       <c r="D2" t="n">
         <v>0.616724928283738</v>
@@ -487,18 +493,21 @@
         <v>0.438153093874799</v>
       </c>
       <c r="L2" t="n">
+        <v>0.601307287628408</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.677827112481047</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.508222265196169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.488009346515533</v>
+        <v>0.503488847512142</v>
       </c>
       <c r="C3" t="n">
         <v>0.55532380171867</v>
@@ -528,18 +537,21 @@
         <v>0.351009115929929</v>
       </c>
       <c r="L3" t="n">
+        <v>0.606011155724885</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.671355992475847</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.447291263751444</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.679366394096195</v>
+        <v>0.681044372483487</v>
       </c>
       <c r="C4" t="n">
         <v>0.701539116816613</v>
@@ -569,18 +581,21 @@
         <v>0.757961572913613</v>
       </c>
       <c r="L4" t="n">
+        <v>0.688032418294747</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.713280127381035</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.61682403920896</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.582407081968796</v>
+        <v>0.610664738740297</v>
       </c>
       <c r="C5" t="n">
         <v>0.667387097439935</v>
@@ -610,15 +625,18 @@
         <v>0.571037878973246</v>
       </c>
       <c r="L5" t="n">
+        <v>0.785034538455345</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.756844881931732</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.472973814509855</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>0.517681293588919</v>
@@ -650,16 +668,17 @@
       <c r="K6" t="n">
         <v>0.510803804042151</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6"/>
+      <c r="M6" t="n">
         <v>0.404576421408372</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>0.497966802692056</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0.364700740506257</v>
@@ -692,13 +711,14 @@
         <v>0.221514789130911</v>
       </c>
       <c r="L7"/>
-      <c r="M7" t="n">
+      <c r="M7"/>
+      <c r="N7" t="n">
         <v>0.372185762920701</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>0.347856888878235</v>
@@ -725,16 +745,17 @@
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
-      <c r="M8" t="n">
+      <c r="M8"/>
+      <c r="N8" t="n">
         <v>0.306358846199483</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.414163491723958</v>
+        <v>0.411487229771989</v>
       </c>
       <c r="C9" t="n">
         <v>0.439007996245569</v>
@@ -764,9 +785,12 @@
         <v>0.319277017627355</v>
       </c>
       <c r="L9" t="n">
+        <v>0.394354933252772</v>
+      </c>
+      <c r="M9" t="n">
         <v>0.662536527281334</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>0.400776129109669</v>
       </c>
     </row>

--- a/xlsx/country_comparison/radical_redistr_positive.xlsx
+++ b/xlsx/country_comparison/radical_redistr_positive.xlsx
@@ -71,7 +71,8 @@
 all countries converge in terms of GDP per capita by the end of the century"</t>
   </si>
   <si>
-    <t xml:space="preserve">Could sign a petition and spread ideas</t>
+    <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,
+ and fund LICs (either petition, demonstrate, strike, or donate)</t>
   </si>
   <si>
     <t xml:space="preserve">More likely to vote for party if part of worldwide
@@ -463,10 +464,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.556885386017966</v>
+        <v>0.557218101837123</v>
       </c>
       <c r="C2" t="n">
-        <v>0.612606004275779</v>
+        <v>0.612606004275778</v>
       </c>
       <c r="D2" t="n">
         <v>0.616724928283738</v>
@@ -493,7 +494,7 @@
         <v>0.438153093874799</v>
       </c>
       <c r="L2" t="n">
-        <v>0.601307287628408</v>
+        <v>0.604221211671973</v>
       </c>
       <c r="M2" t="n">
         <v>0.677827112481047</v>
@@ -507,7 +508,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.503488847512142</v>
+        <v>0.504011711533617</v>
       </c>
       <c r="C3" t="n">
         <v>0.55532380171867</v>
@@ -537,7 +538,7 @@
         <v>0.351009115929929</v>
       </c>
       <c r="L3" t="n">
-        <v>0.606011155724885</v>
+        <v>0.609596257019646</v>
       </c>
       <c r="M3" t="n">
         <v>0.671355992475847</v>
@@ -551,7 +552,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.681044372483487</v>
+        <v>0.680974666901203</v>
       </c>
       <c r="C4" t="n">
         <v>0.701539116816613</v>
@@ -581,7 +582,7 @@
         <v>0.757961572913613</v>
       </c>
       <c r="L4" t="n">
-        <v>0.688032418294747</v>
+        <v>0.687742090810018</v>
       </c>
       <c r="M4" t="n">
         <v>0.713280127381035</v>
@@ -595,7 +596,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.610664738740297</v>
+        <v>0.610500687790388</v>
       </c>
       <c r="C5" t="n">
         <v>0.667387097439935</v>
@@ -625,7 +626,7 @@
         <v>0.571037878973246</v>
       </c>
       <c r="L5" t="n">
-        <v>0.785034538455345</v>
+        <v>0.783687718511218</v>
       </c>
       <c r="M5" t="n">
         <v>0.756844881931732</v>
@@ -639,41 +640,41 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.517681293588919</v>
+        <v>0.675505142809517</v>
       </c>
       <c r="C6" t="n">
-        <v>0.54627578656303</v>
+        <v>0.719216740354837</v>
       </c>
       <c r="D6" t="n">
-        <v>0.530038042676022</v>
+        <v>0.699222514786681</v>
       </c>
       <c r="E6" t="n">
-        <v>0.525216461992543</v>
+        <v>0.688082663981164</v>
       </c>
       <c r="F6" t="n">
-        <v>0.574663014312723</v>
+        <v>0.819338712934373</v>
       </c>
       <c r="G6" t="n">
-        <v>0.541227742327436</v>
+        <v>0.708420268414952</v>
       </c>
       <c r="H6" t="n">
-        <v>0.57000212855437</v>
+        <v>0.74352822863702</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5501691998004</v>
+        <v>0.68138828161491</v>
       </c>
       <c r="J6" t="n">
-        <v>0.48406365355452</v>
+        <v>0.639531813440066</v>
       </c>
       <c r="K6" t="n">
-        <v>0.510803804042151</v>
+        <v>0.55775498195175</v>
       </c>
       <c r="L6"/>
       <c r="M6" t="n">
-        <v>0.404576421408372</v>
+        <v>0.727098526374066</v>
       </c>
       <c r="N6" t="n">
-        <v>0.497966802692056</v>
+        <v>0.666567623760654</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +756,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.411487229771989</v>
+        <v>0.41179092322154</v>
       </c>
       <c r="C9" t="n">
         <v>0.439007996245569</v>
@@ -785,7 +786,7 @@
         <v>0.319277017627355</v>
       </c>
       <c r="L9" t="n">
-        <v>0.394354933252772</v>
+        <v>0.396547754749935</v>
       </c>
       <c r="M9" t="n">
         <v>0.662536527281334</v>

--- a/xlsx/country_comparison/radical_redistr_positive.xlsx
+++ b/xlsx/country_comparison/radical_redistr_positive.xlsx
@@ -67,8 +67,8 @@
     <t xml:space="preserve">Prefers sustainable future</t>
   </si>
   <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have
-all countries converge in terms of GDP per capita by the end of the century"</t>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
   </si>
   <si>
     <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,

--- a/xlsx/country_comparison/radical_redistr_positive.xlsx
+++ b/xlsx/country_comparison/radical_redistr_positive.xlsx
@@ -464,10 +464,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.557218101837123</v>
+        <v>0.556007222541788</v>
       </c>
       <c r="C2" t="n">
-        <v>0.612606004275778</v>
+        <v>0.612606004275779</v>
       </c>
       <c r="D2" t="n">
         <v>0.616724928283738</v>
@@ -491,16 +491,16 @@
         <v>0.529872342725065</v>
       </c>
       <c r="K2" t="n">
-        <v>0.438153093874799</v>
+        <v>0.438282499020205</v>
       </c>
       <c r="L2" t="n">
-        <v>0.604221211671973</v>
+        <v>0.595756191953926</v>
       </c>
       <c r="M2" t="n">
         <v>0.677827112481047</v>
       </c>
       <c r="N2" t="n">
-        <v>0.508222265196169</v>
+        <v>0.508231644030169</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.504011711533617</v>
+        <v>0.50312291438834</v>
       </c>
       <c r="C3" t="n">
         <v>0.55532380171867</v>
@@ -535,16 +535,16 @@
         <v>0.360111742646164</v>
       </c>
       <c r="K3" t="n">
-        <v>0.351009115929929</v>
+        <v>0.351050882580874</v>
       </c>
       <c r="L3" t="n">
-        <v>0.609596257019646</v>
+        <v>0.604399737467109</v>
       </c>
       <c r="M3" t="n">
         <v>0.671355992475847</v>
       </c>
       <c r="N3" t="n">
-        <v>0.447291263751444</v>
+        <v>0.447300643788012</v>
       </c>
     </row>
     <row r="4">
@@ -552,7 +552,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.680974666901203</v>
+        <v>0.680881448179833</v>
       </c>
       <c r="C4" t="n">
         <v>0.701539116816613</v>
@@ -579,16 +579,16 @@
         <v>0.665468662233116</v>
       </c>
       <c r="K4" t="n">
-        <v>0.757961572913613</v>
+        <v>0.758076861129753</v>
       </c>
       <c r="L4" t="n">
-        <v>0.687742090810018</v>
+        <v>0.688615273248795</v>
       </c>
       <c r="M4" t="n">
         <v>0.713280127381035</v>
       </c>
       <c r="N4" t="n">
-        <v>0.61682403920896</v>
+        <v>0.616918649447641</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +596,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.610500687790388</v>
+        <v>0.609601586795904</v>
       </c>
       <c r="C5" t="n">
         <v>0.667387097439935</v>
@@ -623,16 +623,16 @@
         <v>0.566109070039295</v>
       </c>
       <c r="K5" t="n">
-        <v>0.571037878973246</v>
+        <v>0.571096670838126</v>
       </c>
       <c r="L5" t="n">
-        <v>0.783687718511218</v>
+        <v>0.778963825426238</v>
       </c>
       <c r="M5" t="n">
         <v>0.756844881931732</v>
       </c>
       <c r="N5" t="n">
-        <v>0.472973814509855</v>
+        <v>0.472900191628792</v>
       </c>
     </row>
     <row r="6">
@@ -640,7 +640,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.675505142809517</v>
+        <v>0.675595447215337</v>
       </c>
       <c r="C6" t="n">
         <v>0.719216740354837</v>
@@ -667,14 +667,14 @@
         <v>0.639531813440066</v>
       </c>
       <c r="K6" t="n">
-        <v>0.55775498195175</v>
+        <v>0.557841849059486</v>
       </c>
       <c r="L6"/>
       <c r="M6" t="n">
         <v>0.727098526374066</v>
       </c>
       <c r="N6" t="n">
-        <v>0.666567623760654</v>
+        <v>0.666651932459956</v>
       </c>
     </row>
     <row r="7">
@@ -682,7 +682,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.364700740506257</v>
+        <v>0.364717906507653</v>
       </c>
       <c r="C7" t="n">
         <v>0.40721776360235</v>
@@ -709,12 +709,12 @@
         <v>0.314122252360097</v>
       </c>
       <c r="K7" t="n">
-        <v>0.221514789130911</v>
+        <v>0.22156020948145</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7" t="n">
-        <v>0.372185762920701</v>
+        <v>0.372217577193357</v>
       </c>
     </row>
     <row r="8">
@@ -722,7 +722,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.347856888878235</v>
+        <v>0.347853243460036</v>
       </c>
       <c r="C8" t="n">
         <v>0.389632627264691</v>
@@ -748,7 +748,7 @@
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8" t="n">
-        <v>0.306358846199483</v>
+        <v>0.306445646731996</v>
       </c>
     </row>
     <row r="9">
@@ -756,7 +756,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.41179092322154</v>
+        <v>0.410626908494325</v>
       </c>
       <c r="C9" t="n">
         <v>0.439007996245569</v>
@@ -783,16 +783,16 @@
         <v>0.393105560133332</v>
       </c>
       <c r="K9" t="n">
-        <v>0.319277017627355</v>
+        <v>0.319383802321488</v>
       </c>
       <c r="L9" t="n">
-        <v>0.396547754749935</v>
+        <v>0.389233362357354</v>
       </c>
       <c r="M9" t="n">
         <v>0.662536527281334</v>
       </c>
       <c r="N9" t="n">
-        <v>0.400776129109669</v>
+        <v>0.40055514051731</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/radical_redistr_positive.xlsx
+++ b/xlsx/country_comparison/radical_redistr_positive.xlsx
@@ -464,10 +464,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.556007222541788</v>
+        <v>0.556565037682828</v>
       </c>
       <c r="C2" t="n">
-        <v>0.612606004275779</v>
+        <v>0.612606004275778</v>
       </c>
       <c r="D2" t="n">
         <v>0.616724928283738</v>
@@ -494,7 +494,7 @@
         <v>0.438282499020205</v>
       </c>
       <c r="L2" t="n">
-        <v>0.595756191953926</v>
+        <v>0.599020579536134</v>
       </c>
       <c r="M2" t="n">
         <v>0.677827112481047</v>
@@ -508,7 +508,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.50312291438834</v>
+        <v>0.503247309719211</v>
       </c>
       <c r="C3" t="n">
         <v>0.55532380171867</v>
@@ -538,7 +538,7 @@
         <v>0.351050882580874</v>
       </c>
       <c r="L3" t="n">
-        <v>0.604399737467109</v>
+        <v>0.605713809935328</v>
       </c>
       <c r="M3" t="n">
         <v>0.671355992475847</v>
@@ -552,43 +552,43 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.680881448179833</v>
+        <v>0.680815013747804</v>
       </c>
       <c r="C4" t="n">
         <v>0.701539116816613</v>
       </c>
       <c r="D4" t="n">
-        <v>0.719673932778947</v>
+        <v>0.721220700610068</v>
       </c>
       <c r="E4" t="n">
-        <v>0.704645953003574</v>
+        <v>0.703415187125182</v>
       </c>
       <c r="F4" t="n">
-        <v>0.760434225154626</v>
+        <v>0.759706650286704</v>
       </c>
       <c r="G4" t="n">
-        <v>0.572739428737827</v>
+        <v>0.575101001313061</v>
       </c>
       <c r="H4" t="n">
-        <v>0.73608837047601</v>
+        <v>0.731116681894394</v>
       </c>
       <c r="I4" t="n">
-        <v>0.679200342355269</v>
+        <v>0.68337742404715</v>
       </c>
       <c r="J4" t="n">
-        <v>0.665468662233116</v>
+        <v>0.659704988708263</v>
       </c>
       <c r="K4" t="n">
-        <v>0.758076861129753</v>
+        <v>0.759539408850822</v>
       </c>
       <c r="L4" t="n">
-        <v>0.688615273248795</v>
+        <v>0.689906588508866</v>
       </c>
       <c r="M4" t="n">
-        <v>0.713280127381035</v>
+        <v>0.721853509181885</v>
       </c>
       <c r="N4" t="n">
-        <v>0.616918649447641</v>
+        <v>0.618731104894089</v>
       </c>
     </row>
     <row r="5">
@@ -596,43 +596,43 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.609601586795904</v>
+        <v>0.704960018034767</v>
       </c>
       <c r="C5" t="n">
-        <v>0.667387097439935</v>
+        <v>0.780310385878786</v>
       </c>
       <c r="D5" t="n">
-        <v>0.608837961112165</v>
+        <v>0.767261516731427</v>
       </c>
       <c r="E5" t="n">
-        <v>0.64586557994442</v>
+        <v>0.757541746745335</v>
       </c>
       <c r="F5" t="n">
-        <v>0.780212171052138</v>
+        <v>0.874984008964506</v>
       </c>
       <c r="G5" t="n">
-        <v>0.766346455024569</v>
+        <v>0.847206298409435</v>
       </c>
       <c r="H5" t="n">
-        <v>0.728439095410156</v>
+        <v>0.842339547896952</v>
       </c>
       <c r="I5" t="n">
-        <v>0.555251737340332</v>
+        <v>0.65799487387268</v>
       </c>
       <c r="J5" t="n">
-        <v>0.566109070039295</v>
+        <v>0.656332785129309</v>
       </c>
       <c r="K5" t="n">
-        <v>0.571096670838126</v>
+        <v>0.703874631903231</v>
       </c>
       <c r="L5" t="n">
-        <v>0.778963825426238</v>
+        <v>0.777883926828007</v>
       </c>
       <c r="M5" t="n">
-        <v>0.756844881931732</v>
+        <v>0.92816201896394</v>
       </c>
       <c r="N5" t="n">
-        <v>0.472900191628792</v>
+        <v>0.562406199574745</v>
       </c>
     </row>
     <row r="6">
@@ -646,35 +646,35 @@
         <v>0.719216740354837</v>
       </c>
       <c r="D6" t="n">
-        <v>0.699222514786681</v>
+        <v>0.703425024778734</v>
       </c>
       <c r="E6" t="n">
-        <v>0.688082663981164</v>
+        <v>0.690418272415403</v>
       </c>
       <c r="F6" t="n">
-        <v>0.819338712934373</v>
+        <v>0.817088824971887</v>
       </c>
       <c r="G6" t="n">
-        <v>0.708420268414952</v>
+        <v>0.707832398863728</v>
       </c>
       <c r="H6" t="n">
-        <v>0.74352822863702</v>
+        <v>0.743080145118413</v>
       </c>
       <c r="I6" t="n">
-        <v>0.68138828161491</v>
+        <v>0.682786565268408</v>
       </c>
       <c r="J6" t="n">
-        <v>0.639531813440066</v>
+        <v>0.629978960602202</v>
       </c>
       <c r="K6" t="n">
-        <v>0.557841849059486</v>
+        <v>0.559364498889858</v>
       </c>
       <c r="L6"/>
       <c r="M6" t="n">
-        <v>0.727098526374066</v>
+        <v>0.729122438104651</v>
       </c>
       <c r="N6" t="n">
-        <v>0.666651932459956</v>
+        <v>0.667115559981111</v>
       </c>
     </row>
     <row r="7">
@@ -688,33 +688,33 @@
         <v>0.40721776360235</v>
       </c>
       <c r="D7" t="n">
-        <v>0.428789858236926</v>
+        <v>0.433925894981486</v>
       </c>
       <c r="E7" t="n">
-        <v>0.382760045850686</v>
+        <v>0.380034556242257</v>
       </c>
       <c r="F7" t="n">
-        <v>0.49409402735291</v>
+        <v>0.493153717901538</v>
       </c>
       <c r="G7" t="n">
-        <v>0.297020517023446</v>
+        <v>0.294240462496433</v>
       </c>
       <c r="H7" t="n">
-        <v>0.434344229636586</v>
+        <v>0.435945067636782</v>
       </c>
       <c r="I7" t="n">
-        <v>0.394744985134441</v>
+        <v>0.393859939620314</v>
       </c>
       <c r="J7" t="n">
-        <v>0.314122252360097</v>
+        <v>0.309382480278528</v>
       </c>
       <c r="K7" t="n">
-        <v>0.22156020948145</v>
+        <v>0.221879636941058</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7" t="n">
-        <v>0.372217577193357</v>
+        <v>0.372714769461306</v>
       </c>
     </row>
     <row r="8">
@@ -728,27 +728,27 @@
         <v>0.389632627264691</v>
       </c>
       <c r="D8" t="n">
-        <v>0.330491389745475</v>
+        <v>0.330319367513297</v>
       </c>
       <c r="E8" t="n">
-        <v>0.335223833737993</v>
+        <v>0.336287925808747</v>
       </c>
       <c r="F8" t="n">
-        <v>0.55884551964724</v>
+        <v>0.557635114819894</v>
       </c>
       <c r="G8"/>
       <c r="H8" t="n">
-        <v>0.402288413192778</v>
+        <v>0.403966853457814</v>
       </c>
       <c r="I8" t="n">
-        <v>0.353117864669717</v>
+        <v>0.352147255041012</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8" t="n">
-        <v>0.306445646731996</v>
+        <v>0.306378388289677</v>
       </c>
     </row>
     <row r="9">
@@ -756,43 +756,43 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.410626908494325</v>
+        <v>0.410629863862209</v>
       </c>
       <c r="C9" t="n">
         <v>0.439007996245569</v>
       </c>
       <c r="D9" t="n">
-        <v>0.324278224348557</v>
+        <v>0.323193155043108</v>
       </c>
       <c r="E9" t="n">
-        <v>0.441488389669955</v>
+        <v>0.444463951462934</v>
       </c>
       <c r="F9" t="n">
-        <v>0.518375799884677</v>
+        <v>0.518235877111197</v>
       </c>
       <c r="G9" t="n">
-        <v>0.40468182659417</v>
+        <v>0.41082014424506</v>
       </c>
       <c r="H9" t="n">
-        <v>0.506211274976579</v>
+        <v>0.500549487362927</v>
       </c>
       <c r="I9" t="n">
-        <v>0.451738941455142</v>
+        <v>0.453356423772496</v>
       </c>
       <c r="J9" t="n">
-        <v>0.393105560133332</v>
+        <v>0.387974052023334</v>
       </c>
       <c r="K9" t="n">
-        <v>0.319383802321488</v>
+        <v>0.32098402394466</v>
       </c>
       <c r="L9" t="n">
-        <v>0.389233362357354</v>
+        <v>0.389828757171604</v>
       </c>
       <c r="M9" t="n">
-        <v>0.662536527281334</v>
+        <v>0.665815836537034</v>
       </c>
       <c r="N9" t="n">
-        <v>0.40055514051731</v>
+        <v>0.400110573948723</v>
       </c>
     </row>
   </sheetData>
